--- a/schema_hbase.xlsx
+++ b/schema_hbase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSI\i5\Management et déploiement de solutions Big Data\Hbase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.lhuillier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D840C392-34CD-484B-A815-8CECA839D332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B59757-0FF9-4CA7-A274-2D877908A861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,71 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Families</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>address (add) - version = 2</t>
+  </si>
+  <si>
+    <t>civilité (civ) - verson = 2</t>
+  </si>
+  <si>
+    <t>account (acc) - version = 1</t>
+  </si>
+  <si>
+    <t>key : on va générer un identifiant unique en se basant l'email (email ne peut appartenir qu'à un client)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,12 +122,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +462,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECFC835-C618-496C-AE3D-B0D181DA523C}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="C2:N2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/schema_hbase.xlsx
+++ b/schema_hbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.lhuillier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B59757-0FF9-4CA7-A274-2D877908A861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2BDAA-D825-4B71-94C4-BD8C757AB5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="332" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -91,6 +91,111 @@
   </si>
   <si>
     <t>key : on va générer un identifiant unique en se basant l'email (email ne peut appartenir qu'à un client)</t>
+  </si>
+  <si>
+    <t>active : permet de définir si le compte est actif ou non</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FILM</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>release_year</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>movie(mov)</t>
+  </si>
+  <si>
+    <t>distribution (dis)</t>
+  </si>
+  <si>
+    <t>ACTOR</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>civilitéActor(civA)</t>
+  </si>
+  <si>
+    <t>first_name_actor</t>
+  </si>
+  <si>
+    <t>last_name_actor</t>
+  </si>
+  <si>
+    <t>actor_key</t>
+  </si>
+  <si>
+    <t>actor1</t>
+  </si>
+  <si>
+    <t>actor2</t>
+  </si>
+  <si>
+    <t>actorX</t>
+  </si>
+  <si>
+    <t>langage_name</t>
+  </si>
+  <si>
+    <t>original_langage</t>
+  </si>
+  <si>
+    <t>rental_duration</t>
+  </si>
+  <si>
+    <t>Rental</t>
+  </si>
+  <si>
+    <t>rentalMovie (ren)</t>
+  </si>
+  <si>
+    <t>movieKey</t>
+  </si>
+  <si>
+    <t>rental_rate</t>
+  </si>
+  <si>
+    <t>special_features</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>storeKey</t>
+  </si>
+  <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -114,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,17 +242,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,22 +598,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECFC835-C618-496C-AE3D-B0D181DA523C}">
-  <dimension ref="A2:N11"/>
+  <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -495,26 +636,30 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
@@ -524,16 +669,18 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -553,28 +700,28 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -587,9 +734,13 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -601,9 +752,13 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -615,8 +770,10 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -629,18 +786,277 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="C16:O16"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="C2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schema_hbase.xlsx
+++ b/schema_hbase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.lhuillier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSI\i5\Management et déploiement de solutions Big Data\Hbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2BDAA-D825-4B71-94C4-BD8C757AB5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE0FEE-B397-44B7-9723-342E081F4E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="332" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
+    <workbookView xWindow="105" yWindow="390" windowWidth="28695" windowHeight="12945" tabRatio="332" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -129,12 +129,6 @@
     <t>movie</t>
   </si>
   <si>
-    <t>movie(mov)</t>
-  </si>
-  <si>
-    <t>distribution (dis)</t>
-  </si>
-  <si>
     <t>ACTOR</t>
   </si>
   <si>
@@ -196,6 +190,12 @@
   </si>
   <si>
     <t>rating</t>
+  </si>
+  <si>
+    <t>distribution (dis) - version = 1</t>
+  </si>
+  <si>
+    <t>movie(mov) - version = 1</t>
   </si>
 </sst>
 </file>
@@ -274,16 +274,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECFC835-C618-496C-AE3D-B0D181DA523C}">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R26" sqref="Q26:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,172 +622,172 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -808,214 +808,214 @@
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="G19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>39</v>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,13 +1026,13 @@
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
         <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,23 +1040,23 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="C2:P2"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D18:L18"/>
     <mergeCell ref="C16:O16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="C2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schema_hbase.xlsx
+++ b/schema_hbase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSI\i5\Management et déploiement de solutions Big Data\Hbase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.lhuillier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE0FEE-B397-44B7-9723-342E081F4E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8FCCDA-CAD4-48E9-9012-FC5975B3ADFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="390" windowWidth="28695" windowHeight="12945" tabRatio="332" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="332" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -135,9 +135,6 @@
     <t>families</t>
   </si>
   <si>
-    <t>civilitéActor(civA)</t>
-  </si>
-  <si>
     <t>first_name_actor</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Rental</t>
   </si>
   <si>
-    <t>rentalMovie (ren)</t>
-  </si>
-  <si>
     <t>movieKey</t>
   </si>
   <si>
@@ -196,6 +190,66 @@
   </si>
   <si>
     <t>movie(mov) - version = 1</t>
+  </si>
+  <si>
+    <t>rental_date</t>
+  </si>
+  <si>
+    <t>civilitéActor(civA) - VERSION = 1</t>
+  </si>
+  <si>
+    <t>return_date</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>customerKey</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>payment_date</t>
+  </si>
+  <si>
+    <t>payment_type</t>
+  </si>
+  <si>
+    <t>active : permet de déterminer si le film est disponible ou non en location</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>storeInfomations (sto)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>addressKey</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>adressKey</t>
+  </si>
+  <si>
+    <t>addressCust (addC) - version = 2</t>
+  </si>
+  <si>
+    <t>rentalPayment(renP) - version = 1</t>
+  </si>
+  <si>
+    <t>rentalMovie (ren) - version = 1</t>
   </si>
 </sst>
 </file>
@@ -219,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -268,11 +322,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -284,6 +375,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECFC835-C618-496C-AE3D-B0D181DA523C}">
-  <dimension ref="A2:P40"/>
+  <dimension ref="A2:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R26" sqref="Q26:R26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,9 +712,9 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
@@ -631,13 +732,13 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
@@ -648,7 +749,6 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -664,21 +764,15 @@
         <v>17</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -700,24 +794,10 @@
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -728,14 +808,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="I6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -746,14 +822,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -764,14 +834,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
@@ -780,14 +844,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -829,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -840,7 +898,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -859,36 +917,36 @@
         <v>29</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -900,17 +958,19 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -925,7 +985,9 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -969,7 +1031,7 @@
         <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -979,84 +1041,331 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="H39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="M18:O18"/>
+  <mergeCells count="19">
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="C60:I60"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D18:L18"/>
     <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schema_hbase.xlsx
+++ b/schema_hbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.lhuillier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8FCCDA-CAD4-48E9-9012-FC5975B3ADFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88309479-327C-45BC-AE59-F4B4A6096A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="332" xr2:uid="{78C40C59-60E3-49F1-BC2E-25ED88A9BCE3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>rental_duration</t>
   </si>
   <si>
-    <t>Rental</t>
-  </si>
-  <si>
     <t>movieKey</t>
   </si>
   <si>
@@ -250,6 +244,39 @@
   </si>
   <si>
     <t>rentalMovie (ren) - version = 1</t>
+  </si>
+  <si>
+    <t>RENTAL</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>civiliteStaff (civS) - verson = 2</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>accountStaff (accS) - version = 2</t>
+  </si>
+  <si>
+    <t>rattachedStore (rst) *</t>
+  </si>
+  <si>
+    <t>* version = 3</t>
+  </si>
+  <si>
+    <t>** version = 2</t>
+  </si>
+  <si>
+    <t>addressStaff (addS)**</t>
   </si>
 </sst>
 </file>
@@ -363,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -385,6 +412,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECFC835-C618-496C-AE3D-B0D181DA523C}">
-  <dimension ref="A2:P67"/>
+  <dimension ref="A2:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +743,8 @@
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -732,7 +761,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -761,16 +790,16 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -780,28 +809,28 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -809,13 +838,13 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -827,7 +856,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -849,17 +878,17 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -867,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -887,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -898,55 +927,55 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -958,18 +987,18 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -986,7 +1015,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1021,49 +1050,49 @@
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1073,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1089,10 +1118,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1100,7 +1129,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -1109,58 +1138,58 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1169,7 +1198,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1185,7 +1214,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1215,50 +1244,73 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
+      <c r="C49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -1269,10 +1321,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -1282,30 +1334,30 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1314,9 +1366,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1325,9 +1377,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1336,7 +1388,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1345,12 +1397,165 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="C72:M72"/>
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="J38:N38"/>
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="C60:I60"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D18:L18"/>
@@ -1360,12 +1565,12 @@
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
